--- a/loinc_2.xlsx
+++ b/loinc_2.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmilius/Documents/src/github-bmilius-nmdp/pytestfhir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55116BD-3CB2-4B49-AC69-18A805E63FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2CC8BEA-A1F2-4945-8203-3586D8C835E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="460" windowWidth="48800" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loinc_2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="CAR" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAR!$B$1:$W$149</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2456" uniqueCount="2263">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4217" uniqueCount="2482">
   <si>
     <t>Code</t>
   </si>
@@ -6824,6 +6828,666 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/topics/neuroscience/plasma-cell</t>
+  </si>
+  <si>
+    <t>LOINC Time Aspect</t>
+  </si>
+  <si>
+    <t>System / Specimen</t>
+  </si>
+  <si>
+    <t>LOINC Scale</t>
+  </si>
+  <si>
+    <t>LOINC Method</t>
+  </si>
+  <si>
+    <t>LOINC Example Units</t>
+  </si>
+  <si>
+    <t>CDE ID</t>
+  </si>
+  <si>
+    <t>CDE Long Name</t>
+  </si>
+  <si>
+    <t>Band Cell Laboratory Procedure Performance Lab Percentage Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Basophil Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Blast Cell Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>CDE Needed</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Eosinophil Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Hematology Hemoglobin F Measurement Assessment Percentage Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Hemoglobin Result Outcome Integer::2 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Hematocrit Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Absolute Blood Lymphocyte Count Laboratory Procedure Performed Outcome Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Lymphocyte Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Metamyelocyte Result Percentage 0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Absolute Monocyte Laboratory Procedure Performed Outcome Integer::1 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Monocyte Result Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Myeloblast Count Laboratory Procedure Blood Performed Outcome Percentage 0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Myelocyte Result Percentage 0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Absolute Neutrophil Count Result 1 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Neutrophil Result Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Need CDE that is not specific to morphologic finding</t>
+  </si>
+  <si>
+    <t>Blood Plasma Cell Morphologic Finding Laboratory Procedure Outcome 2 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Blood Plasma Cell Morphologic Finding Laboratory Procedure Outcome Percentage 0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Platelet Result Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Prolymphocyte Result Percentage Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Complete Erythrocyte Result 2 Decimal Place Cells per Microliter Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Leukocyte Result Outcome Integer::1 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Serum Albumin Laboratory Procedure Performed Outcome Integer::1 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Serum Beta-2-Microglobulin Protein Laboratory Procedure Performed Result Integer::3 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Serum Total Bilirubin Measurement Laboratory Procedure Performed Outcome Integer::1 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Lactate Dehydrogenase Result Integer::2 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Serum Iron Measurement Laboratory Procedure Performed Outcome 2 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Total Iron Binding Capacity Laboratory Procedure Performed Outcome 2 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Laboratory Procedure Bone Marrow Blast Cell Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Segmented Neutrophil Laboratory Procedure Performed Outcome Percentage Integer::0 Decimal Place Value</t>
+  </si>
+  <si>
+    <t>Point in time</t>
+  </si>
+  <si>
+    <t>Whole blood</t>
+  </si>
+  <si>
+    <t>Quantitative</t>
+  </si>
+  <si>
+    <t>Not Specified</t>
+  </si>
+  <si>
+    <t>Automated count</t>
+  </si>
+  <si>
+    <t>Manual count</t>
+  </si>
+  <si>
+    <t>Electrophoresis</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>Kleihauer-Betke</t>
+  </si>
+  <si>
+    <t>Electrophoresis pH 8.9</t>
+  </si>
+  <si>
+    <t>Blood arterial</t>
+  </si>
+  <si>
+    <t>Oximetry</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Blood- mixed Venous</t>
+  </si>
+  <si>
+    <t>Blood venous</t>
+  </si>
+  <si>
+    <t>Blood capillary</t>
+  </si>
+  <si>
+    <t>Spun</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Impedance</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Urine</t>
+  </si>
+  <si>
+    <t>Detection limit &lt;= 3.0 mg/L</t>
+  </si>
+  <si>
+    <t>Serum / Plasma</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>BCP</t>
+  </si>
+  <si>
+    <t>mg/L;ug/mL</t>
+  </si>
+  <si>
+    <t>Serum / Plasma / Blood</t>
+  </si>
+  <si>
+    <t>Reaction: lactate to pyruvate</t>
+  </si>
+  <si>
+    <t>Reaction: pyruvate to lactate</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Marrow (bone)</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>LOINC Code
+(to avoid date conversions this must be formated as Text and not General)</t>
+  </si>
+  <si>
+    <t>Lab Name
+(CIBMTR Attribute)</t>
+  </si>
+  <si>
+    <t>Value Type
+(CIBMTR Attribute)</t>
+  </si>
+  <si>
+    <t>LOINC Component</t>
+  </si>
+  <si>
+    <t>LOINC Property</t>
+  </si>
+  <si>
+    <t>Bands</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Neutrophils.band form/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Number Fraction</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>Basophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Blasts in Blood</t>
+  </si>
+  <si>
+    <t>Blasts/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>Number Concentration (count/vol)</t>
+  </si>
+  <si>
+    <t>Eosinophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Fetal Hemoglobin</t>
+  </si>
+  <si>
+    <t>Hemoglobin F/Hemoglobin.total</t>
+  </si>
+  <si>
+    <t>Mass Fraction</t>
+  </si>
+  <si>
+    <t>Mass Decimal Fraction</t>
+  </si>
+  <si>
+    <t>Hemaglobin</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Mass Concentration</t>
+  </si>
+  <si>
+    <t>Substance Concentration</t>
+  </si>
+  <si>
+    <t>Hematocrit</t>
+  </si>
+  <si>
+    <t>Volume Fraction</t>
+  </si>
+  <si>
+    <t>Volume Decimal Fraction</t>
+  </si>
+  <si>
+    <t>Lymphocytes</t>
+  </si>
+  <si>
+    <t>Lymphocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Metamyelocytes</t>
+  </si>
+  <si>
+    <t>Metamyelocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Metamyelocytes/leukocytes</t>
+  </si>
+  <si>
+    <t>Decimal number fraction</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Presence or Threshold</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Monocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Myeloblasts</t>
+  </si>
+  <si>
+    <t>Myeloblasts/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Myelocytes</t>
+  </si>
+  <si>
+    <t>Myelocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Myelocytes/leukocytes</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Neutrophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Plasma Cells in Blood</t>
+  </si>
+  <si>
+    <t>Plasma cells</t>
+  </si>
+  <si>
+    <t>Plasma cells/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Platelet Mean Volume</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Platelet mean volume</t>
+  </si>
+  <si>
+    <t>Entitic Volume</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Prolymphocytes</t>
+  </si>
+  <si>
+    <t>Prolymphocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Promonocytes</t>
+  </si>
+  <si>
+    <t>Promonocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Promyelocytes</t>
+  </si>
+  <si>
+    <t>Promyelocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Promyelocytes/leukocytes</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>Erythrocytes</t>
+  </si>
+  <si>
+    <t>Reticulocytes</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>1754-1</t>
+  </si>
+  <si>
+    <t>Albumin [Mass/volume] in Urine</t>
+  </si>
+  <si>
+    <t>Albumin in Urine</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>6942-7</t>
+  </si>
+  <si>
+    <t>Albumin [Mass/volume] in Urine by Electrophoresis</t>
+  </si>
+  <si>
+    <t>77158-4</t>
+  </si>
+  <si>
+    <t>Albumin [Moles/volume] in Urine by Detection limit &lt;= 3.0 mg/L</t>
+  </si>
+  <si>
+    <t>Albumin in Serum</t>
+  </si>
+  <si>
+    <t>1952-1</t>
+  </si>
+  <si>
+    <t>Beta-2-Microglobulin [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Beta-2-Microglobulin</t>
+  </si>
+  <si>
+    <t>76484-5</t>
+  </si>
+  <si>
+    <t>Beta-2-Microglobulin [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>35194-0</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin</t>
+  </si>
+  <si>
+    <t>Mass or Substance Concentration</t>
+  </si>
+  <si>
+    <t>1975-2</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>14631-6</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>77137-8</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Moles/volume] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>2532-0</t>
+  </si>
+  <si>
+    <t>Lactate dehydrogenase [Enzymatic activity/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>LDH</t>
+  </si>
+  <si>
+    <t>Lactate dehydrogenase</t>
+  </si>
+  <si>
+    <t>Catalytic Concentration</t>
+  </si>
+  <si>
+    <t>14804-9</t>
+  </si>
+  <si>
+    <t>Lactate dehydrogenase [Enzymatic activity/volume] in Serum or Plasma by Lactate to pyruvate reaction</t>
+  </si>
+  <si>
+    <t>14805-6</t>
+  </si>
+  <si>
+    <t>Lactate dehydrogenase [Enzymatic activity/volume] in Serum or Plasma by Pyruvate to lactate reaction</t>
+  </si>
+  <si>
+    <t>35214-6</t>
+  </si>
+  <si>
+    <t>Iron [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Iron in Serum</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>2498-4</t>
+  </si>
+  <si>
+    <t>Iron [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>14798-3</t>
+  </si>
+  <si>
+    <t>Iron [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>35215-3</t>
+  </si>
+  <si>
+    <t>Iron binding capacity [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Total Iron Binding Capacity (TIBC)</t>
+  </si>
+  <si>
+    <t>Iron binding capacity</t>
+  </si>
+  <si>
+    <t>2500-7</t>
+  </si>
+  <si>
+    <t>Iron binding capacity [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>14800-7</t>
+  </si>
+  <si>
+    <t>Iron binding capacity [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>35209-6</t>
+  </si>
+  <si>
+    <t>Ferritin [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Ferritin in Serum</t>
+  </si>
+  <si>
+    <t>Ferritin</t>
+  </si>
+  <si>
+    <t>Blasts in Bone Marrow</t>
+  </si>
+  <si>
+    <t>Blasts/100 cells</t>
+  </si>
+  <si>
+    <t>57028-3</t>
+  </si>
+  <si>
+    <t>Iron [Mass/mass] in Liver</t>
+  </si>
+  <si>
+    <t>Liver Iron Content</t>
+  </si>
+  <si>
+    <t>Mass Content</t>
+  </si>
+  <si>
+    <t>Segmented Neutrophils</t>
+  </si>
+  <si>
+    <t>Neutrophils.segmented/100 leukocytes</t>
+  </si>
+  <si>
+    <t>4679-7</t>
+  </si>
+  <si>
+    <t>Reticulocytes/100 erythrocytes in Blood</t>
+  </si>
+  <si>
+    <t>Reticulocytes/100 erythrocytes</t>
+  </si>
+  <si>
+    <t>17849-1</t>
+  </si>
+  <si>
+    <t>Reticulocytes/100 erythrocytes in Blood by Automated count</t>
+  </si>
+  <si>
+    <t>31112-6</t>
+  </si>
+  <si>
+    <t>Reticulocytes/100 erythrocytes in Blood by Manual</t>
+  </si>
+  <si>
+    <t>708-8</t>
+  </si>
+  <si>
+    <t>Blasts [#/volume] in Blood by Manual count</t>
+  </si>
+  <si>
+    <t>Blasts</t>
+  </si>
+  <si>
+    <t>30376-8</t>
+  </si>
+  <si>
+    <t>Blasts [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>26444-0</t>
+  </si>
+  <si>
+    <t>Basophils [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>704-7</t>
+  </si>
+  <si>
+    <t>Basophils [#/volume] in Blood by Automated count</t>
+  </si>
+  <si>
+    <t>705-4</t>
+  </si>
+  <si>
+    <t>Basophils [#/volume] in Blood by Manual count</t>
+  </si>
+  <si>
+    <t>6863-5</t>
+  </si>
+  <si>
+    <t>Prolymphocytes [#/volume] in Blood by Manual count</t>
   </si>
 </sst>
 </file>
@@ -7333,7 +7997,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7349,6 +8013,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7706,12 +8374,12 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="4820" ySplit="1160"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane xSplit="6960" ySplit="1160" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:L1"/>
       <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
-      <selection pane="bottomRight" activeCell="L69" sqref="L69"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7799,7 +8467,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(ISTEXT(E3),"Quantity")</f>
+        <f>IF(ISTEXT(E3),"Quantity")</f>
         <v>Quantity</v>
       </c>
       <c r="E3" t="str">
@@ -7807,7 +8475,7 @@
         <v>percent</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="1">IF(ISNUMBER(SEARCH("Quantity",C3)),"http://unitsofmeasure.org")</f>
+        <f t="shared" ref="F3:F66" si="0">IF(ISNUMBER(SEARCH("Quantity",C3)),"http://unitsofmeasure.org")</f>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G3" t="s">
@@ -7831,7 +8499,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISTEXT(E4),"Quantity")</f>
         <v>Quantity</v>
       </c>
       <c r="E4" t="str">
@@ -7839,7 +8507,7 @@
         <v>percent</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G4" t="s">
@@ -7863,7 +8531,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C66" si="1">IF(ISTEXT(E5),"Quantity")</f>
         <v>Quantity</v>
       </c>
       <c r="E5" t="str">
@@ -7871,7 +8539,7 @@
         <v>percent</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G5" t="s">
@@ -7895,7 +8563,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E6" t="str">
@@ -7903,7 +8571,7 @@
         <v>percent</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G6" t="s">
@@ -7927,7 +8595,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E7" t="str">
@@ -7935,7 +8603,7 @@
         <v>percent</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G7" t="s">
@@ -7959,7 +8627,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E8" t="str">
@@ -7967,7 +8635,7 @@
         <v>percent</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G8" t="s">
@@ -7988,7 +8656,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E9" t="str">
@@ -7996,7 +8664,7 @@
         <v>percent</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G9" t="s">
@@ -8017,7 +8685,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E10" t="str">
@@ -8025,7 +8693,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G10" t="s">
@@ -8049,7 +8717,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E11" t="str">
@@ -8057,7 +8725,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G11" t="s">
@@ -8081,7 +8749,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E12" t="str">
@@ -8089,7 +8757,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G12" t="s">
@@ -8113,7 +8781,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E13" t="str">
@@ -8121,7 +8789,7 @@
         <v>percent</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G13" t="s">
@@ -8145,7 +8813,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E14" t="str">
@@ -8153,7 +8821,7 @@
         <v>percent</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G14" t="s">
@@ -8177,7 +8845,7 @@
         <v>49</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E15" t="str">
@@ -8185,7 +8853,7 @@
         <v>percent</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G15" t="s">
@@ -8209,7 +8877,7 @@
         <v>51</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E16" t="str">
@@ -8217,7 +8885,7 @@
         <v>percent</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G16" t="s">
@@ -8241,7 +8909,7 @@
         <v>53</v>
       </c>
       <c r="C17" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" t="e">
@@ -8249,7 +8917,7 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17">
@@ -8273,7 +8941,7 @@
         <v>55</v>
       </c>
       <c r="C18" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" t="e">
@@ -8281,7 +8949,7 @@
         <v>#N/A</v>
       </c>
       <c r="F18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -8305,7 +8973,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" t="e">
@@ -8313,7 +8981,7 @@
         <v>#N/A</v>
       </c>
       <c r="F19" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19">
@@ -8337,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E20" t="str">
@@ -8345,7 +9013,7 @@
         <v>percent</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G20" t="s">
@@ -8369,7 +9037,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E21" t="str">
@@ -8377,7 +9045,7 @@
         <v>percent</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G21" t="s">
@@ -8401,7 +9069,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E22" t="str">
@@ -8409,7 +9077,7 @@
         <v>percent</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G22" t="s">
@@ -8433,7 +9101,7 @@
         <v>65</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E23" t="str">
@@ -8441,7 +9109,7 @@
         <v>percent</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G23" t="s">
@@ -8465,7 +9133,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E24" t="str">
@@ -8473,7 +9141,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G24" t="s">
@@ -8497,7 +9165,7 @@
         <v>67</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E25" t="str">
@@ -8505,7 +9173,7 @@
         <v>millimole per liter</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G25" t="s">
@@ -8529,7 +9197,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E26" t="str">
@@ -8537,7 +9205,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G26" t="s">
@@ -8561,7 +9229,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E27" t="str">
@@ -8569,7 +9237,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G27" t="s">
@@ -8593,7 +9261,7 @@
         <v>73</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E28" t="str">
@@ -8601,7 +9269,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G28" t="s">
@@ -8625,7 +9293,7 @@
         <v>75</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E29" t="str">
@@ -8633,7 +9301,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G29" t="s">
@@ -8657,7 +9325,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E30" t="str">
@@ -8665,7 +9333,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G30" t="s">
@@ -8689,7 +9357,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E31" t="str">
@@ -8697,7 +9365,7 @@
         <v>gram per liter</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G31" t="s">
@@ -8721,7 +9389,7 @@
         <v>81</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E32" t="str">
@@ -8729,7 +9397,7 @@
         <v>gram per deciliter</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G32" t="s">
@@ -8753,7 +9421,7 @@
         <v>83</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E33" t="str">
@@ -8761,7 +9429,7 @@
         <v>gram per liter</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G33" t="s">
@@ -8785,7 +9453,7 @@
         <v>85</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E34" t="str">
@@ -8793,7 +9461,7 @@
         <v>millimole per liter</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G34" t="s">
@@ -8817,7 +9485,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E35" t="str">
@@ -8825,7 +9493,7 @@
         <v>millimole per liter</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G35" t="s">
@@ -8849,7 +9517,7 @@
         <v>89</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E36" t="str">
@@ -8857,7 +9525,7 @@
         <v>percent</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G36" t="s">
@@ -8881,7 +9549,7 @@
         <v>91</v>
       </c>
       <c r="C37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" t="e">
@@ -8889,7 +9557,7 @@
         <v>#N/A</v>
       </c>
       <c r="F37" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37">
@@ -8913,7 +9581,7 @@
         <v>93</v>
       </c>
       <c r="C38" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" t="e">
@@ -8921,7 +9589,7 @@
         <v>#N/A</v>
       </c>
       <c r="F38" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38">
@@ -8945,7 +9613,7 @@
         <v>95</v>
       </c>
       <c r="C39" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" t="e">
@@ -8953,7 +9621,7 @@
         <v>#N/A</v>
       </c>
       <c r="F39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39">
@@ -8977,7 +9645,7 @@
         <v>97</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E40" t="str">
@@ -8985,7 +9653,7 @@
         <v>percent</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G40" t="s">
@@ -9009,7 +9677,7 @@
         <v>99</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E41" t="str">
@@ -9017,7 +9685,7 @@
         <v>percent</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G41" t="s">
@@ -9041,7 +9709,7 @@
         <v>101</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E42" t="str">
@@ -9049,7 +9717,7 @@
         <v>percent</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G42" t="s">
@@ -9073,7 +9741,7 @@
         <v>103</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E43" t="str">
@@ -9081,7 +9749,7 @@
         <v>percent</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G43" t="s">
@@ -9105,7 +9773,7 @@
         <v>105</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E44" t="str">
@@ -9113,7 +9781,7 @@
         <v>percent</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G44" t="s">
@@ -9137,7 +9805,7 @@
         <v>107</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E45" t="str">
@@ -9145,7 +9813,7 @@
         <v>percent</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G45" t="s">
@@ -9169,7 +9837,7 @@
         <v>109</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E46" t="str">
@@ -9177,7 +9845,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G46" t="s">
@@ -9201,7 +9869,7 @@
         <v>111</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E47" t="str">
@@ -9209,7 +9877,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G47" t="s">
@@ -9233,7 +9901,7 @@
         <v>113</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E48" t="str">
@@ -9241,7 +9909,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G48" t="s">
@@ -9265,7 +9933,7 @@
         <v>115</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E49" t="str">
@@ -9273,7 +9941,7 @@
         <v>percent</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G49" t="s">
@@ -9297,7 +9965,7 @@
         <v>117</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E50" t="str">
@@ -9305,7 +9973,7 @@
         <v>percent</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G50" t="s">
@@ -9329,7 +9997,7 @@
         <v>119</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E51" t="str">
@@ -9337,7 +10005,7 @@
         <v>percent</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G51" t="s">
@@ -9361,7 +10029,7 @@
         <v>121</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E52" t="str">
@@ -9369,7 +10037,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G52" t="s">
@@ -9390,7 +10058,7 @@
         <v>123</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E53" t="str">
@@ -9398,7 +10066,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G53" t="s">
@@ -9419,7 +10087,7 @@
         <v>125</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E54" t="str">
@@ -9427,7 +10095,7 @@
         <v>percent</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G54" t="s">
@@ -9451,7 +10119,7 @@
         <v>127</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E55" t="str">
@@ -9459,7 +10127,7 @@
         <v>percent</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G55" t="s">
@@ -9483,7 +10151,7 @@
         <v>129</v>
       </c>
       <c r="C56" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E56" t="e">
@@ -9491,7 +10159,7 @@
         <v>#N/A</v>
       </c>
       <c r="F56" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56">
@@ -9515,7 +10183,7 @@
         <v>25</v>
       </c>
       <c r="C57" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E57" t="e">
@@ -9523,7 +10191,7 @@
         <v>#N/A</v>
       </c>
       <c r="F57" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57">
@@ -9538,7 +10206,7 @@
         <v>131</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E58" t="str">
@@ -9546,7 +10214,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G58" t="s">
@@ -9567,7 +10235,7 @@
         <v>133</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E59" t="str">
@@ -9575,7 +10243,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G59" t="s">
@@ -9596,7 +10264,7 @@
         <v>135</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E60" t="str">
@@ -9604,7 +10272,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G60" t="s">
@@ -9625,7 +10293,7 @@
         <v>137</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E61" t="str">
@@ -9633,7 +10301,7 @@
         <v>percent</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G61" t="s">
@@ -9657,7 +10325,7 @@
         <v>139</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E62" t="str">
@@ -9665,7 +10333,7 @@
         <v>percent</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G62" t="s">
@@ -9689,7 +10357,7 @@
         <v>141</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E63" t="str">
@@ -9697,7 +10365,7 @@
         <v>percent</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G63" t="s">
@@ -9721,7 +10389,7 @@
         <v>143</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E64" t="str">
@@ -9729,7 +10397,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G64" t="s">
@@ -9750,7 +10418,7 @@
         <v>145</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E65" t="str">
@@ -9758,7 +10426,7 @@
         <v>Thousands Per MicroLiter</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G65" t="s">
@@ -9779,7 +10447,7 @@
         <v>147</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Quantity</v>
       </c>
       <c r="E66" t="str">
@@ -9787,7 +10455,7 @@
         <v>percent</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>http://unitsofmeasure.org</v>
       </c>
       <c r="G66" t="s">
@@ -11490,11 +12158,7770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793290F7-23F1-8F4F-9967-E2E630BC57DB}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="16880" topLeftCell="A156"/>
+      <selection activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="94" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2264</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>2265</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>2233</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>2883274</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISTEXT(P2),"Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="P2" t="str">
+        <f>VLOOKUP(K2,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(ISNUMBER(SEARCH("Quantity", N2)), "http://unitsofmeasure.org")</f>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>2883275</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="0">IF(ISTEXT(P3),"Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="P3" t="str">
+        <f>VLOOKUP(K3,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="1">IF(ISNUMBER(SEARCH("Quantity", N3)), "http://unitsofmeasure.org")</f>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2883276</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P4" t="str">
+        <f>VLOOKUP(K4,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>2897746</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P5" t="str">
+        <f>VLOOKUP(K5,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>2897747</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P6" t="str">
+        <f>VLOOKUP(K6,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>2897748</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P7" t="str">
+        <f>VLOOKUP(K7,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>2861046</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P8" t="str">
+        <f>VLOOKUP(K8,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>2861047</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P9" t="str">
+        <f>VLOOKUP(K9,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="e">
+        <f>VLOOKUP(K10,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D11" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P11" t="str">
+        <f>VLOOKUP(K11,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>689</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P12" t="str">
+        <f>VLOOKUP(K12,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>3123937</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2274</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P13" t="str">
+        <f>VLOOKUP(K13,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>3123937</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P14" t="str">
+        <f>VLOOKUP(K14,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>3123937</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2274</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P15" t="str">
+        <f>VLOOKUP(K15,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>3763134</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P16" t="str">
+        <f>VLOOKUP(K16,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3763134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="e">
+        <f>VLOOKUP(K17,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3763134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="e">
+        <f>VLOOKUP(K18,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3763134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="e">
+        <f>VLOOKUP(K19,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>3763134</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P20" t="str">
+        <f>VLOOKUP(K20,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2311</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <v>3763134</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P21" t="str">
+        <f>VLOOKUP(K21,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>3763134</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P22" t="str">
+        <f>VLOOKUP(K22,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>3763134</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2275</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P23" t="str">
+        <f>VLOOKUP(K23,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>2798928</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P24" t="str">
+        <f>VLOOKUP(K24,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K25" t="s">
+        <v>256</v>
+      </c>
+      <c r="L25">
+        <v>2798928</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P25" t="str">
+        <f>VLOOKUP(K25,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>millimole per liter</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26">
+        <v>2798928</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P26" t="str">
+        <f>VLOOKUP(K26,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>2798928</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P27" t="str">
+        <f>VLOOKUP(K27,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2314</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <v>2798928</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P28" t="str">
+        <f>VLOOKUP(K28,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>2798928</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P29" t="str">
+        <f>VLOOKUP(K29,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2315</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>2798928</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P30" t="str">
+        <f>VLOOKUP(K30,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2315</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31">
+        <v>2798928</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P31" t="str">
+        <f>VLOOKUP(K31,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per liter</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>2798928</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P32" t="str">
+        <f>VLOOKUP(K32,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33">
+        <v>2798928</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P33" t="str">
+        <f>VLOOKUP(K33,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per liter</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I34" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34">
+        <v>2798928</v>
+      </c>
+      <c r="M34" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P34" t="str">
+        <f>VLOOKUP(K34,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>millimole per liter</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35">
+        <v>2798928</v>
+      </c>
+      <c r="M35" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P35" t="str">
+        <f>VLOOKUP(K35,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>millimole per liter</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>3061152</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P36" t="str">
+        <f>VLOOKUP(K36,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>3061152</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="e">
+        <f>VLOOKUP(K37,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>3061152</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="e">
+        <f>VLOOKUP(K38,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>3061152</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="e">
+        <f>VLOOKUP(K39,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>3061152</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P40" t="str">
+        <f>VLOOKUP(K40,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>3061152</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P41" t="str">
+        <f>VLOOKUP(K41,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2319</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>3061152</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P42" t="str">
+        <f>VLOOKUP(K42,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>3061152</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P43" t="str">
+        <f>VLOOKUP(K43,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>3061152</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P44" t="str">
+        <f>VLOOKUP(K44,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2316</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45">
+        <v>3061152</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P45" t="str">
+        <f>VLOOKUP(K45,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D46" t="s">
+        <v>689</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <v>4266831</v>
+      </c>
+      <c r="M46" t="s">
+        <v>2278</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P46" t="str">
+        <f>VLOOKUP(K46,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D47" t="s">
+        <v>689</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>4266831</v>
+      </c>
+      <c r="M47" t="s">
+        <v>2278</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P47" t="str">
+        <f>VLOOKUP(K47,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D48" t="s">
+        <v>689</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48">
+        <v>4266831</v>
+      </c>
+      <c r="M48" t="s">
+        <v>2278</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P48" t="str">
+        <f>VLOOKUP(K48,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>2798924</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2279</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P49" t="str">
+        <f>VLOOKUP(K49,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H50" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>2798924</v>
+      </c>
+      <c r="M50" t="s">
+        <v>2279</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P50" t="str">
+        <f>VLOOKUP(K50,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>2798924</v>
+      </c>
+      <c r="M51" t="s">
+        <v>2279</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P51" t="str">
+        <f>VLOOKUP(K51,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D52" t="s">
+        <v>689</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P52" t="str">
+        <f>VLOOKUP(K52,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D53" t="s">
+        <v>689</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K53" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P53" t="str">
+        <f>VLOOKUP(K53,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>7118795</v>
+      </c>
+      <c r="M54" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P54" t="str">
+        <f>VLOOKUP(K54,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>7118795</v>
+      </c>
+      <c r="M55" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P55" t="str">
+        <f>VLOOKUP(K55,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>7118795</v>
+      </c>
+      <c r="M56" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P56" t="e">
+        <f>VLOOKUP(K56,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2321</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P57" t="e">
+        <f>VLOOKUP(K57,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D58" t="s">
+        <v>689</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58">
+        <v>2860862</v>
+      </c>
+      <c r="M58" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P58" t="str">
+        <f>VLOOKUP(K58,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D59" t="s">
+        <v>689</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59">
+        <v>2860862</v>
+      </c>
+      <c r="M59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P59" t="str">
+        <f>VLOOKUP(K59,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D60" t="s">
+        <v>689</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H60" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60">
+        <v>2860862</v>
+      </c>
+      <c r="M60" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P60" t="str">
+        <f>VLOOKUP(K60,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61">
+        <v>3076040</v>
+      </c>
+      <c r="M61" t="s">
+        <v>2282</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P61" t="str">
+        <f>VLOOKUP(K61,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <v>3076040</v>
+      </c>
+      <c r="M62" t="s">
+        <v>2282</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P62" t="str">
+        <f>VLOOKUP(K62,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H63" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K63" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63">
+        <v>3076040</v>
+      </c>
+      <c r="M63" t="s">
+        <v>2282</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P63" t="str">
+        <f>VLOOKUP(K63,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P64" t="str">
+        <f>VLOOKUP(K64,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D65" t="s">
+        <v>689</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P65" t="str">
+        <f>VLOOKUP(K65,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>7591785</v>
+      </c>
+      <c r="M66" t="s">
+        <v>2283</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P66" t="str">
+        <f>VLOOKUP(K66,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="1"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I67" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>7591785</v>
+      </c>
+      <c r="M67" t="s">
+        <v>2283</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="2">IF(ISTEXT(P67),"Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="P67" t="str">
+        <f>VLOOKUP(K67,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q130" si="3">IF(ISNUMBER(SEARCH("Quantity", N67)), "http://unitsofmeasure.org")</f>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D68" t="s">
+        <v>689</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K68" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P68" t="str">
+        <f>VLOOKUP(K68,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D69" t="s">
+        <v>689</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H69" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I69" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K69" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P69" t="str">
+        <f>VLOOKUP(K69,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H70" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>7118797</v>
+      </c>
+      <c r="M70" t="s">
+        <v>2284</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P70" t="str">
+        <f>VLOOKUP(K70,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71">
+        <v>7118797</v>
+      </c>
+      <c r="M71" t="s">
+        <v>2284</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P71" t="str">
+        <f>VLOOKUP(K71,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I72" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>7118797</v>
+      </c>
+      <c r="M72" t="s">
+        <v>2284</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P72" t="e">
+        <f>VLOOKUP(K72,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q72" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D73" t="s">
+        <v>689</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K73" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <v>6059542</v>
+      </c>
+      <c r="M73" t="s">
+        <v>2285</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P73" t="str">
+        <f>VLOOKUP(K73,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D74" t="s">
+        <v>689</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K74" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74">
+        <v>6059542</v>
+      </c>
+      <c r="M74" t="s">
+        <v>2285</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P74" t="str">
+        <f>VLOOKUP(K74,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D75" t="s">
+        <v>689</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K75" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75">
+        <v>6059542</v>
+      </c>
+      <c r="M75" t="s">
+        <v>2285</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P75" t="str">
+        <f>VLOOKUP(K75,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H76" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76">
+        <v>2795147</v>
+      </c>
+      <c r="M76" t="s">
+        <v>2286</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P76" t="str">
+        <f>VLOOKUP(K76,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77">
+        <v>2795147</v>
+      </c>
+      <c r="M77" t="s">
+        <v>2286</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P77" t="str">
+        <f>VLOOKUP(K77,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>2795147</v>
+      </c>
+      <c r="M78" t="s">
+        <v>2286</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P78" t="str">
+        <f>VLOOKUP(K78,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D79" t="s">
+        <v>689</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H79" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I79" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K79" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" t="s">
+        <v>2287</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P79" t="str">
+        <f>VLOOKUP(K79,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D80" t="s">
+        <v>689</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H80" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K80" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80">
+        <v>6682519</v>
+      </c>
+      <c r="M80" t="s">
+        <v>2288</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P80" t="str">
+        <f>VLOOKUP(K80,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K81" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" t="s">
+        <v>2287</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P81" t="str">
+        <f>VLOOKUP(K81,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I82" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82">
+        <v>6682514</v>
+      </c>
+      <c r="M82" t="s">
+        <v>2289</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P82" t="str">
+        <f>VLOOKUP(K82,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I83" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K83" t="s">
+        <v>258</v>
+      </c>
+      <c r="M83" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P83" t="str">
+        <f>VLOOKUP(K83,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>femtoliter</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H84" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I84" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K84" t="s">
+        <v>258</v>
+      </c>
+      <c r="M84" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P84" t="str">
+        <f>VLOOKUP(K84,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>femtoliter</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D85" t="s">
+        <v>689</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H85" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K85" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85">
+        <v>3030931</v>
+      </c>
+      <c r="M85" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P85" t="str">
+        <f>VLOOKUP(K85,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D86" t="s">
+        <v>689</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K86" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86">
+        <v>3030931</v>
+      </c>
+      <c r="M86" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P86" t="str">
+        <f>VLOOKUP(K86,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D87" t="s">
+        <v>689</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H87" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I87" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2322</v>
+      </c>
+      <c r="K87" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87">
+        <v>3030931</v>
+      </c>
+      <c r="M87" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P87" t="str">
+        <f>VLOOKUP(K87,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D88" t="s">
+        <v>689</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H88" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I88" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K88" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88">
+        <v>3030931</v>
+      </c>
+      <c r="M88" t="s">
+        <v>2290</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P88" t="str">
+        <f>VLOOKUP(K88,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H89" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>58306</v>
+      </c>
+      <c r="M89" t="s">
+        <v>2291</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P89" t="str">
+        <f>VLOOKUP(K89,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H90" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90">
+        <v>58306</v>
+      </c>
+      <c r="M90" t="s">
+        <v>2291</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P90" t="str">
+        <f>VLOOKUP(K90,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D91" t="s">
+        <v>689</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H91" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K91" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P91" t="str">
+        <f>VLOOKUP(K91,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D92" t="s">
+        <v>689</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H92" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K92" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P92" t="str">
+        <f>VLOOKUP(K92,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I93" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J93" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K93" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P93" t="str">
+        <f>VLOOKUP(K93,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H94" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K94" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P94" t="str">
+        <f>VLOOKUP(K94,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D95" t="s">
+        <v>689</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H95" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K95" t="s">
+        <v>15</v>
+      </c>
+      <c r="M95" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P95" t="str">
+        <f>VLOOKUP(K95,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D96" t="s">
+        <v>689</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F96" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H96" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
+      <c r="M96" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P96" t="str">
+        <f>VLOOKUP(K96,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H97" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K97" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P97" t="str">
+        <f>VLOOKUP(K97,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F98" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H98" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K98" t="s">
+        <v>12</v>
+      </c>
+      <c r="M98" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P98" t="str">
+        <f>VLOOKUP(K98,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H99" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N99" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P99" t="e">
+        <f>VLOOKUP(K99,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D100" t="s">
+        <v>689</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H100" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K100" t="s">
+        <v>259</v>
+      </c>
+      <c r="L100">
+        <v>7283949</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2292</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P100" t="str">
+        <f>VLOOKUP(K100,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>million per microliter</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D101" t="s">
+        <v>689</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H101" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J101" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K101" t="s">
+        <v>259</v>
+      </c>
+      <c r="L101">
+        <v>7283949</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2292</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P101" t="str">
+        <f>VLOOKUP(K101,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>million per microliter</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D102" t="s">
+        <v>689</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H102" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J102" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K102" t="s">
+        <v>260</v>
+      </c>
+      <c r="L102">
+        <v>7283949</v>
+      </c>
+      <c r="M102" t="s">
+        <v>2292</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P102" t="str">
+        <f>VLOOKUP(K102,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>billion per microliter</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D103" t="s">
+        <v>689</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H103" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P103" t="str">
+        <f>VLOOKUP(K103,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D104" t="s">
+        <v>689</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H104" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J104" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P104" t="str">
+        <f>VLOOKUP(K104,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D105" t="s">
+        <v>689</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J105" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K105" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P105" t="str">
+        <f>VLOOKUP(K105,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D106" t="s">
+        <v>689</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J106" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106">
+        <v>2775872</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2293</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P106" t="str">
+        <f>VLOOKUP(K106,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D107" t="s">
+        <v>689</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F107" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I107" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J107" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>2775872</v>
+      </c>
+      <c r="M107" t="s">
+        <v>2293</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P107" t="str">
+        <f>VLOOKUP(K107,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D108" t="s">
+        <v>689</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J108" t="s">
+        <v>2322</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108">
+        <v>2775872</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2293</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P108" t="str">
+        <f>VLOOKUP(K108,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q108" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D109" t="s">
+        <v>689</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H109" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I109" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J109" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K109" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109">
+        <v>2775872</v>
+      </c>
+      <c r="M109" t="s">
+        <v>2293</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P109" t="str">
+        <f>VLOOKUP(K109,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q109" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2323</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J110" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P110" t="str">
+        <f>VLOOKUP(K110,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q110" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H111" t="s">
+        <v>2323</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J111" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P111" t="str">
+        <f>VLOOKUP(K111,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q111" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2323</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J112" t="s">
+        <v>2324</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M112" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P112" t="str">
+        <f>VLOOKUP(K112,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>micromole per liter</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J113" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K113" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113">
+        <v>2861067</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P113" t="str">
+        <f>VLOOKUP(K113,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J114" t="s">
+        <v>2326</v>
+      </c>
+      <c r="K114" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114">
+        <v>2861067</v>
+      </c>
+      <c r="M114" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P114" t="str">
+        <f>VLOOKUP(K114,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F115" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J115" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K115" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115">
+        <v>2861067</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P115" t="str">
+        <f>VLOOKUP(K115,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J116" t="s">
+        <v>2308</v>
+      </c>
+      <c r="K116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116">
+        <v>2861067</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2294</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P116" t="str">
+        <f>VLOOKUP(K116,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>gram per deciliter</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J117" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K117" t="s">
+        <v>2328</v>
+      </c>
+      <c r="L117">
+        <v>2861058</v>
+      </c>
+      <c r="M117" t="s">
+        <v>2295</v>
+      </c>
+      <c r="N117" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P117" t="e">
+        <f>VLOOKUP(K117,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q117" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1643</v>
+      </c>
+      <c r="L118">
+        <v>2861058</v>
+      </c>
+      <c r="M118" t="s">
+        <v>2295</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P118" t="str">
+        <f>VLOOKUP(K118,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>nanomole per liter</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H119" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J119" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>2782624</v>
+      </c>
+      <c r="M119" t="s">
+        <v>2296</v>
+      </c>
+      <c r="N119" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P119" t="e">
+        <f>VLOOKUP(K119,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F120" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H120" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J120" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L120">
+        <v>2782624</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2296</v>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P120" t="str">
+        <f>VLOOKUP(K120,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>milligram per deciliter</v>
+      </c>
+      <c r="Q120" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L121">
+        <v>2782624</v>
+      </c>
+      <c r="M121" t="s">
+        <v>2296</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P121" t="str">
+        <f>VLOOKUP(K121,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>micromole per liter</v>
+      </c>
+      <c r="Q121" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H122" t="s">
+        <v>2329</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L122">
+        <v>2782624</v>
+      </c>
+      <c r="M122" t="s">
+        <v>2296</v>
+      </c>
+      <c r="N122" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P122" t="str">
+        <f>VLOOKUP(K122,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>micromole per liter</v>
+      </c>
+      <c r="Q122" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H123" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L123">
+        <v>2798766</v>
+      </c>
+      <c r="M123" t="s">
+        <v>2297</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P123" t="str">
+        <f>VLOOKUP(K123,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>enzyme unit per liter</v>
+      </c>
+      <c r="Q123" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H124" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J124" t="s">
+        <v>2330</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L124">
+        <v>2798766</v>
+      </c>
+      <c r="M124" t="s">
+        <v>2297</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P124" t="str">
+        <f>VLOOKUP(K124,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>enzyme unit per liter</v>
+      </c>
+      <c r="Q124" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F125" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H125" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2331</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L125">
+        <v>2798766</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2297</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P125" t="str">
+        <f>VLOOKUP(K125,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>enzyme unit per liter</v>
+      </c>
+      <c r="Q125" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F126" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H126" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>7359985</v>
+      </c>
+      <c r="M126" t="s">
+        <v>2298</v>
+      </c>
+      <c r="N126" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P126" t="e">
+        <f>VLOOKUP(K126,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q126" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F127" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H127" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I127" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J127" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L127">
+        <v>7359985</v>
+      </c>
+      <c r="M127" t="s">
+        <v>2298</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P127" t="str">
+        <f>VLOOKUP(K127,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>microgram per deciliter</v>
+      </c>
+      <c r="Q127" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F128" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H128" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I128" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J128" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L128">
+        <v>7359985</v>
+      </c>
+      <c r="M128" t="s">
+        <v>2298</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P128" t="str">
+        <f>VLOOKUP(K128,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>micromole per liter</v>
+      </c>
+      <c r="Q128" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G129" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H129" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I129" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J129" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>7360746</v>
+      </c>
+      <c r="M129" t="s">
+        <v>2299</v>
+      </c>
+      <c r="N129" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P129" t="e">
+        <f>VLOOKUP(K129,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q129" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F130" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H130" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I130" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J130" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L130">
+        <v>7360746</v>
+      </c>
+      <c r="M130" t="s">
+        <v>2299</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="2"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P130" t="str">
+        <f>VLOOKUP(K130,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>microgram per deciliter</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="3"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F131" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G131" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H131" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I131" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J131" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L131">
+        <v>7360746</v>
+      </c>
+      <c r="M131" t="s">
+        <v>2299</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N149" si="4">IF(ISTEXT(P131),"Quantity")</f>
+        <v>Quantity</v>
+      </c>
+      <c r="P131" t="str">
+        <f>VLOOKUP(K131,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>micromole per liter</v>
+      </c>
+      <c r="Q131" t="str">
+        <f t="shared" ref="Q131:Q149" si="5">IF(ISNUMBER(SEARCH("Quantity", N131)), "http://unitsofmeasure.org")</f>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F132" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H132" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I132" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J132" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N132" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P132" t="e">
+        <f>VLOOKUP(K132,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q132" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>240</v>
+      </c>
+      <c r="B133" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H133" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I133" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J133" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K133" t="s">
+        <v>261</v>
+      </c>
+      <c r="M133" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P133" t="str">
+        <f>VLOOKUP(K133,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>nanogram per millliiter</v>
+      </c>
+      <c r="Q133" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F134" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H134" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I134" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J134" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K134" t="s">
+        <v>261</v>
+      </c>
+      <c r="M134" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P134" t="str">
+        <f>VLOOKUP(K134,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>nanogram per millliiter</v>
+      </c>
+      <c r="Q134" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F135" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G135" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H135" t="s">
+        <v>2325</v>
+      </c>
+      <c r="I135" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J135" t="s">
+        <v>2332</v>
+      </c>
+      <c r="K135" t="s">
+        <v>261</v>
+      </c>
+      <c r="M135" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P135" t="str">
+        <f>VLOOKUP(K135,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>nanogram per millliiter</v>
+      </c>
+      <c r="Q135" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F136" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H136" t="s">
+        <v>2333</v>
+      </c>
+      <c r="I136" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J136" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+      <c r="L136">
+        <v>2861157</v>
+      </c>
+      <c r="M136" t="s">
+        <v>2300</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P136" t="str">
+        <f>VLOOKUP(K136,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q136" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F137" t="s">
+        <v>2459</v>
+      </c>
+      <c r="G137" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H137" t="s">
+        <v>2334</v>
+      </c>
+      <c r="I137" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J137" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1846</v>
+      </c>
+      <c r="M137" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P137" t="str">
+        <f>VLOOKUP(K137,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>microgram per gram</v>
+      </c>
+      <c r="Q137" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F138" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H138" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I138" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J138" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K138" t="s">
+        <v>12</v>
+      </c>
+      <c r="L138">
+        <v>2881798</v>
+      </c>
+      <c r="M138" t="s">
+        <v>2301</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P138" t="str">
+        <f>VLOOKUP(K138,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q138" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F139" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G139" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H139" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I139" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K139" t="s">
+        <v>12</v>
+      </c>
+      <c r="L139">
+        <v>2881798</v>
+      </c>
+      <c r="M139" t="s">
+        <v>2301</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P139" t="str">
+        <f>VLOOKUP(K139,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q139" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F140" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H140" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I140" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K140" t="s">
+        <v>12</v>
+      </c>
+      <c r="L140">
+        <v>2881798</v>
+      </c>
+      <c r="M140" t="s">
+        <v>2301</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P140" t="str">
+        <f>VLOOKUP(K140,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q140" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G141" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H141" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I141" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K141" t="s">
+        <v>12</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P141" t="str">
+        <f>VLOOKUP(K141,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q141" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F142" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G142" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H142" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I142" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K142" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P142" t="str">
+        <f>VLOOKUP(K142,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q142" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G143" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H143" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I143" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J143" t="s">
+        <v>2335</v>
+      </c>
+      <c r="K143" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P143" t="str">
+        <f>VLOOKUP(K143,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>percent</v>
+      </c>
+      <c r="Q143" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G144" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I144" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J144" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K144" t="s">
+        <v>15</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P144" t="str">
+        <f>VLOOKUP(K144,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q144" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G145" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H145" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I145" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K145" t="s">
+        <v>15</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P145" t="str">
+        <f>VLOOKUP(K145,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q145" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F146" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G146" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H146" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I146" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J146" t="s">
+        <v>2305</v>
+      </c>
+      <c r="K146" t="s">
+        <v>15</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P146" t="str">
+        <f>VLOOKUP(K146,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q146" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F147" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G147" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I147" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J147" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K147" t="s">
+        <v>15</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P147" t="str">
+        <f>VLOOKUP(K147,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q147" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F148" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G148" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I148" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J148" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K148" t="s">
+        <v>15</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P148" t="str">
+        <f>VLOOKUP(K148,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q148" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F149" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G149" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H149" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I149" t="s">
+        <v>2304</v>
+      </c>
+      <c r="J149" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K149" t="s">
+        <v>15</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="4"/>
+        <v>Quantity</v>
+      </c>
+      <c r="P149" t="str">
+        <f>VLOOKUP(K149,Sheet2!$A$2:$B$1001,2,0)</f>
+        <v>Thousands Per MicroLiter</v>
+      </c>
+      <c r="Q149" t="str">
+        <f t="shared" si="5"/>
+        <v>http://unitsofmeasure.org</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:W149" xr:uid="{26F99B4C-E486-814B-892D-B094F857BD37}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="16720" ySplit="10360" topLeftCell="I983"/>
+      <pane xSplit="16720" ySplit="10360" topLeftCell="I970"/>
       <selection activeCell="A2" sqref="A2:A1001"/>
       <selection pane="topRight" activeCell="I961" sqref="I961"/>
       <selection pane="bottomLeft" activeCell="A992" sqref="A992"/>
